--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itga5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H2">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N2">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q2">
-        <v>2653.705335908171</v>
+        <v>3400.543203302079</v>
       </c>
       <c r="R2">
-        <v>23883.34802317354</v>
+        <v>30604.88882971871</v>
       </c>
       <c r="S2">
-        <v>0.007638991468034714</v>
+        <v>0.01427787289883671</v>
       </c>
       <c r="T2">
-        <v>0.007638991468034713</v>
+        <v>0.01427787289883671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H3">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
         <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q3">
-        <v>3300.121247273821</v>
+        <v>3547.307764972533</v>
       </c>
       <c r="R3">
-        <v>29701.09122546439</v>
+        <v>31925.7698847528</v>
       </c>
       <c r="S3">
-        <v>0.009499772906315304</v>
+        <v>0.01489409378835501</v>
       </c>
       <c r="T3">
-        <v>0.009499772906315304</v>
+        <v>0.01489409378835501</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H4">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N4">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q4">
-        <v>2472.664419369772</v>
+        <v>1662.358033145558</v>
       </c>
       <c r="R4">
-        <v>22253.97977432795</v>
+        <v>14961.22229831003</v>
       </c>
       <c r="S4">
-        <v>0.007117844678265483</v>
+        <v>0.006979748613858157</v>
       </c>
       <c r="T4">
-        <v>0.007117844678265483</v>
+        <v>0.006979748613858156</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H5">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N5">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q5">
-        <v>400.4117043115587</v>
+        <v>430.8602063770379</v>
       </c>
       <c r="R5">
-        <v>3603.705338804028</v>
+        <v>3877.741857393341</v>
       </c>
       <c r="S5">
-        <v>0.001152630456572696</v>
+        <v>0.001809054288104401</v>
       </c>
       <c r="T5">
-        <v>0.001152630456572696</v>
+        <v>0.0018090542881044</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H6">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N6">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q6">
-        <v>2126.927776923053</v>
+        <v>1228.727244597678</v>
       </c>
       <c r="R6">
-        <v>19142.34999230748</v>
+        <v>11058.5452013791</v>
       </c>
       <c r="S6">
-        <v>0.006122602581827673</v>
+        <v>0.005159061472492941</v>
       </c>
       <c r="T6">
-        <v>0.006122602581827672</v>
+        <v>0.005159061472492941</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J7">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N7">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q7">
-        <v>58415.70580684176</v>
+        <v>69639.59781017737</v>
       </c>
       <c r="R7">
-        <v>525741.3522615759</v>
+        <v>626756.3802915963</v>
       </c>
       <c r="S7">
-        <v>0.1681562275281688</v>
+        <v>0.2923960281681776</v>
       </c>
       <c r="T7">
-        <v>0.1681562275281688</v>
+        <v>0.2923960281681776</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J8">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
         <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q8">
-        <v>72645.18381114116</v>
+        <v>72645.18381114119</v>
       </c>
       <c r="R8">
-        <v>653806.6543002706</v>
+        <v>653806.6543002708</v>
       </c>
       <c r="S8">
-        <v>0.2091173921302029</v>
+        <v>0.3050155928502595</v>
       </c>
       <c r="T8">
-        <v>0.2091173921302029</v>
+        <v>0.3050155928502595</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J9">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N9">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q9">
-        <v>54430.47324299764</v>
+        <v>34043.36834549266</v>
       </c>
       <c r="R9">
-        <v>489874.2591869787</v>
+        <v>306390.315109434</v>
       </c>
       <c r="S9">
-        <v>0.1566842840755922</v>
+        <v>0.1429380123191002</v>
       </c>
       <c r="T9">
-        <v>0.1566842840755922</v>
+        <v>0.1429380123191002</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J10">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N10">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q10">
-        <v>8814.216109142842</v>
+        <v>8823.570144725942</v>
       </c>
       <c r="R10">
-        <v>79327.94498228558</v>
+        <v>79412.13130253348</v>
       </c>
       <c r="S10">
-        <v>0.02537271970028786</v>
+        <v>0.03704755549584939</v>
       </c>
       <c r="T10">
-        <v>0.02537271970028787</v>
+        <v>0.03704755549584938</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J11">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N11">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q11">
-        <v>46819.81288876468</v>
+        <v>25163.05955151498</v>
       </c>
       <c r="R11">
-        <v>421378.3159988822</v>
+        <v>226467.5359636348</v>
       </c>
       <c r="S11">
-        <v>0.1347761359758714</v>
+        <v>0.1056522280538938</v>
       </c>
       <c r="T11">
-        <v>0.1347761359758714</v>
+        <v>0.1056522280538938</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H12">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I12">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J12">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N12">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q12">
-        <v>10770.513679227</v>
+        <v>2293.277956268488</v>
       </c>
       <c r="R12">
-        <v>96934.62311304297</v>
+        <v>20639.50160641639</v>
       </c>
       <c r="S12">
-        <v>0.03100414389972544</v>
+        <v>0.009628794349535227</v>
       </c>
       <c r="T12">
-        <v>0.03100414389972544</v>
+        <v>0.009628794349535225</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H13">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I13">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J13">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
         <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q13">
-        <v>13394.10241066053</v>
+        <v>2392.2538886176</v>
       </c>
       <c r="R13">
-        <v>120546.9216959448</v>
+        <v>21530.2849975584</v>
       </c>
       <c r="S13">
-        <v>0.03855644130963889</v>
+        <v>0.01004436495035931</v>
       </c>
       <c r="T13">
-        <v>0.03855644130963889</v>
+        <v>0.01004436495035931</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H14">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I14">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J14">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N14">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q14">
-        <v>10035.7283804631</v>
+        <v>1121.070606936176</v>
       </c>
       <c r="R14">
-        <v>90321.55542416791</v>
+        <v>10089.63546242558</v>
       </c>
       <c r="S14">
-        <v>0.02888898116777359</v>
+        <v>0.004707043163255041</v>
       </c>
       <c r="T14">
-        <v>0.02888898116777359</v>
+        <v>0.00470704316325504</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H15">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I15">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J15">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N15">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q15">
-        <v>1625.138887974664</v>
+        <v>290.565993267864</v>
       </c>
       <c r="R15">
-        <v>14626.24999177197</v>
+        <v>2615.093939410776</v>
       </c>
       <c r="S15">
-        <v>0.00467814641347937</v>
+        <v>0.001220000474210787</v>
       </c>
       <c r="T15">
-        <v>0.00467814641347937</v>
+        <v>0.001220000474210787</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H16">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I16">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J16">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N16">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q16">
-        <v>8632.497514362431</v>
+        <v>828.6361724697839</v>
       </c>
       <c r="R16">
-        <v>77692.47762926186</v>
+        <v>7457.725552228057</v>
       </c>
       <c r="S16">
-        <v>0.02484962213691964</v>
+        <v>0.003479197658307509</v>
       </c>
       <c r="T16">
-        <v>0.02484962213691964</v>
+        <v>0.003479197658307509</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H17">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I17">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J17">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N17">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q17">
-        <v>1161.866918912477</v>
+        <v>2702.482565127429</v>
       </c>
       <c r="R17">
-        <v>10456.80227021229</v>
+        <v>24322.34308614686</v>
       </c>
       <c r="S17">
-        <v>0.003344565562900658</v>
+        <v>0.01134692320295863</v>
       </c>
       <c r="T17">
-        <v>0.003344565562900658</v>
+        <v>0.01134692320295863</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H18">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I18">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J18">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N18">
         <v>160.0844</v>
       </c>
       <c r="O18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q18">
-        <v>1444.886006643022</v>
+        <v>2819.119421470801</v>
       </c>
       <c r="R18">
-        <v>13003.9740597872</v>
+        <v>25372.07479323721</v>
       </c>
       <c r="S18">
-        <v>0.004159268072335342</v>
+        <v>0.01183664678846504</v>
       </c>
       <c r="T18">
-        <v>0.004159268072335342</v>
+        <v>0.01183664678846504</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H19">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I19">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J19">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N19">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q19">
-        <v>1082.60210791432</v>
+        <v>1321.110579395958</v>
       </c>
       <c r="R19">
-        <v>9743.418971228883</v>
+        <v>11889.99521456362</v>
       </c>
       <c r="S19">
-        <v>0.003116392823924315</v>
+        <v>0.005546951710423071</v>
       </c>
       <c r="T19">
-        <v>0.003116392823924315</v>
+        <v>0.005546951710423069</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H20">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I20">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J20">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N20">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q20">
-        <v>175.3115189127626</v>
+        <v>342.413586926487</v>
       </c>
       <c r="R20">
-        <v>1577.803670214864</v>
+        <v>3081.722282338383</v>
       </c>
       <c r="S20">
-        <v>0.0005046540695764503</v>
+        <v>0.001437693150971815</v>
       </c>
       <c r="T20">
-        <v>0.0005046540695764504</v>
+        <v>0.001437693150971815</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H21">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I21">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J21">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N21">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q21">
-        <v>931.2288706226068</v>
+        <v>976.4951530678471</v>
       </c>
       <c r="R21">
-        <v>8381.059835603462</v>
+        <v>8788.456377610624</v>
       </c>
       <c r="S21">
-        <v>0.00268064781014551</v>
+        <v>0.004100013688487842</v>
       </c>
       <c r="T21">
-        <v>0.002680647810145511</v>
+        <v>0.004100013688487842</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H22">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N22">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O22">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P22">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q22">
-        <v>11157.74858182049</v>
+        <v>826.7266243216578</v>
       </c>
       <c r="R22">
-        <v>100419.7372363844</v>
+        <v>7440.53961889492</v>
       </c>
       <c r="S22">
-        <v>0.03211884343965181</v>
+        <v>0.0034711800316746</v>
       </c>
       <c r="T22">
-        <v>0.03211884343965181</v>
+        <v>0.0034711800316746</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H23">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N23">
         <v>160.0844</v>
       </c>
       <c r="O23">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P23">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q23">
-        <v>13875.66383816449</v>
+        <v>862.407444527689</v>
       </c>
       <c r="R23">
-        <v>124880.9745434804</v>
+        <v>7761.6670007492</v>
       </c>
       <c r="S23">
-        <v>0.0399426704384952</v>
+        <v>0.003620993218971635</v>
       </c>
       <c r="T23">
-        <v>0.03994267043849522</v>
+        <v>0.003620993218971635</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H24">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N24">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O24">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P24">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q24">
-        <v>10396.54536817639</v>
+        <v>404.1459152237491</v>
       </c>
       <c r="R24">
-        <v>93568.90831358747</v>
+        <v>3637.313237013742</v>
       </c>
       <c r="S24">
-        <v>0.02992763374662915</v>
+        <v>0.001696888898381136</v>
       </c>
       <c r="T24">
-        <v>0.02992763374662915</v>
+        <v>0.001696888898381136</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H25">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N25">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O25">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P25">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q25">
-        <v>1683.567902386439</v>
+        <v>104.749030574507</v>
       </c>
       <c r="R25">
-        <v>15152.11112147795</v>
+        <v>942.7412751705629</v>
       </c>
       <c r="S25">
-        <v>0.004846340951334672</v>
+        <v>0.0004398101289720076</v>
       </c>
       <c r="T25">
-        <v>0.004846340951334673</v>
+        <v>0.0004398101289720075</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H26">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N26">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O26">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P26">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q26">
-        <v>8942.863800843266</v>
+        <v>298.723311661467</v>
       </c>
       <c r="R26">
-        <v>80485.77420758939</v>
+        <v>2688.509804953203</v>
       </c>
       <c r="S26">
-        <v>0.02574304665633086</v>
+        <v>0.001254250636098485</v>
       </c>
       <c r="T26">
-        <v>0.02574304665633086</v>
+        <v>0.001254250636098485</v>
       </c>
     </row>
   </sheetData>
